--- a/0. Organização do projeto/1. Front-End/Lista loja - Cloth Fashion.xlsx
+++ b/0. Organização do projeto/1. Front-End/Lista loja - Cloth Fashion.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarvalho\Desktop\e-shop\0. Organização do projeto\1. Front-End\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884BE787-C3D9-4ED4-8810-649F74E55FB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA933052-C1DD-47B2-B09C-6033B1FF474D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{B6EBEFE8-F7DB-4CF3-9C1C-77DE00E1819B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B6EBEFE8-F7DB-4CF3-9C1C-77DE00E1819B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -600,24 +599,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA36E3BF-2D55-4E2F-8AD3-CD6A66111F5C}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.04296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.58984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -643,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -675,7 +674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -707,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -739,7 +738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -771,7 +770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -803,7 +802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -829,7 +828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -855,7 +854,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -881,7 +880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E11" s="2"/>
     </row>
   </sheetData>
